--- a/biology/Zoologie/Escargot_de_Vénétie/Escargot_de_Vénétie.xlsx
+++ b/biology/Zoologie/Escargot_de_Vénétie/Escargot_de_Vénétie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Escargot_de_V%C3%A9n%C3%A9tie</t>
+          <t>Escargot_de_Vénétie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helix cincta
 L'escargot de Vénétie (Helix cincta O.F. Müller, 1774) est une espèce d'escargots, des mollusques gastéropodes terrestres, de la famille des Helicidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Escargot_de_V%C3%A9n%C3%A9tie</t>
+          <t>Escargot_de_Vénétie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Répandue dans le centre et l'ouest de l'Asie Mineure, les Iles Égée, en Grèce, Albanie, Croatie, Italie du Nord (Friuli, Lombardie).
 Il vit dans les habitats rocheux, sous couvert buissonnant.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Escargot_de_V%C3%A9n%C3%A9tie</t>
+          <t>Escargot_de_Vénétie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coquille globuleuse, épaisse, d'un diamètre d'environ 28 - 40 mm pour une hauteur de 30 -- 42 mm. Jaunâtre striée irrégulièrement de 5 bandes brunes les trois premières parfois confondus. Intérieur de la coquille le plus souvent brune ou grisatre.
 Une espèce ressemblante se rencontrant dans les mêmes biotopes est Helix ligata.
